--- a/assets/upload/3.b.2.penelitian_dtps.xlsx
+++ b/assets/upload/3.b.2.penelitian_dtps.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaPulahtaFTUP\Documents\TEMPLATE BORANG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PULAHTA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="penelitian_dosen" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1025,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,24 +1061,6 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1086,21 +1068,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F68F1A5B8EB834F8EA34C1E294E495A" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fe7ef91928ac3555dbbf616eb890885">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0298b850-3ff0-4474-a5c7-d30be56e2652" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="301b0c888956b06311aa6e4f5aca7edf" ns3:_="">
     <xsd:import namespace="0298b850-3ff0-4474-a5c7-d30be56e2652"/>
@@ -1270,10 +1237,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA103D42-B934-47AE-94FF-6D596DBDD521}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BE54912-5E0A-410D-9DD3-08E8230DCDA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0298b850-3ff0-4474-a5c7-d30be56e2652"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1295,19 +1287,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BE54912-5E0A-410D-9DD3-08E8230DCDA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA103D42-B934-47AE-94FF-6D596DBDD521}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0298b850-3ff0-4474-a5c7-d30be56e2652"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>